--- a/005. pandas code intro/Lesson3.xlsx
+++ b/005. pandas code intro/Lesson3.xlsx
@@ -635,7 +635,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -651,7 +651,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -763,7 +763,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -859,7 +859,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -971,7 +971,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1003,7 +1003,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1115,7 +1115,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1131,7 +1131,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1195,7 +1195,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1243,7 +1243,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1387,7 +1387,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1419,7 +1419,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1451,7 +1451,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1483,7 +1483,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1595,7 +1595,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1707,7 +1707,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1771,7 +1771,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1787,7 +1787,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2075,7 +2075,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2139,7 +2139,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2203,7 +2203,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2251,7 +2251,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2283,7 +2283,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2299,7 +2299,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2347,7 +2347,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2363,7 +2363,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2731,7 +2731,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2923,7 +2923,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3307,7 +3307,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3419,7 +3419,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -3483,7 +3483,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -3563,7 +3563,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3579,7 +3579,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3611,7 +3611,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3627,7 +3627,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3643,7 +3643,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3675,7 +3675,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3691,7 +3691,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>NY</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B208" t="n">
